--- a/AAII_Financials/Quarterly/SNBH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNBH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>SNBH</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,56 +665,63 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -742,8 +749,14 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -753,14 +766,14 @@
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
@@ -771,8 +784,14 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -782,14 +801,14 @@
       <c r="E10" s="3">
         <v>0</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
@@ -800,8 +819,14 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,25 +838,27 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
+      <c r="D12" s="3">
+        <v>0</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>4</v>
@@ -842,8 +869,14 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +904,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,8 +939,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +974,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,37 +990,45 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>800</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -977,28 +1036,34 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,8 +1075,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1019,17 +1086,17 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1039,8 +1106,14 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1048,28 +1121,34 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1082,14 +1161,14 @@
       <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
@@ -1097,37 +1176,49 @@
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1155,8 +1246,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,8 +1491,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1367,17 +1506,17 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1387,37 +1526,49 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,8 +1705,10 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1543,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -1561,27 +1734,33 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>4</v>
@@ -1592,25 +1771,31 @@
       <c r="K42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>100</v>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -1618,28 +1803,34 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>4</v>
@@ -1650,16 +1841,22 @@
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
@@ -1667,11 +1864,11 @@
       <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
+      <c r="H45" s="3">
+        <v>100</v>
+      </c>
+      <c r="I45" s="3">
+        <v>100</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
@@ -1679,42 +1876,54 @@
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
-      </c>
-      <c r="E46" s="3">
-        <v>300</v>
       </c>
       <c r="F46" s="3">
         <v>200</v>
       </c>
       <c r="G46" s="3">
+        <v>300</v>
+      </c>
+      <c r="H46" s="3">
+        <v>200</v>
+      </c>
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
       <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
@@ -1737,8 +1946,14 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1763,11 +1978,17 @@
       <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1795,8 +2016,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,37 +2086,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,8 +2156,14 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -1926,22 +2177,28 @@
         <v>300</v>
       </c>
       <c r="G54" s="3">
+        <v>300</v>
+      </c>
+      <c r="H54" s="3">
+        <v>300</v>
+      </c>
+      <c r="I54" s="3">
         <v>200</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
       <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,16 +2225,18 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
@@ -1990,27 +2251,33 @@
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>600</v>
+      </c>
+      <c r="F58" s="3">
         <v>500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>500</v>
-      </c>
-      <c r="F58" s="3">
-        <v>200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>200</v>
       </c>
       <c r="H58" s="3">
         <v>200</v>
@@ -2024,8 +2291,14 @@
       <c r="K58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>200</v>
+      </c>
+      <c r="M58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2053,37 +2326,49 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>800</v>
+      </c>
+      <c r="F60" s="3">
         <v>600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>300</v>
-      </c>
-      <c r="I60" s="3">
-        <v>200</v>
-      </c>
-      <c r="J60" s="3">
-        <v>200</v>
       </c>
       <c r="K60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>200</v>
+      </c>
+      <c r="M60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2111,8 +2396,14 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2140,8 +2431,14 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2536,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>800</v>
+      </c>
+      <c r="F66" s="3">
         <v>600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>300</v>
-      </c>
-      <c r="I66" s="3">
-        <v>200</v>
-      </c>
-      <c r="J66" s="3">
-        <v>200</v>
       </c>
       <c r="K66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3">
+        <v>200</v>
+      </c>
+      <c r="M66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2726,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-1700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-1700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-1500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-1100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-1000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-1000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,25 +2866,31 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F76" s="3">
         <v>-300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-100</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-200</v>
       </c>
       <c r="I76" s="3">
         <v>-200</v>
@@ -2528,10 +2899,16 @@
         <v>-200</v>
       </c>
       <c r="K76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +3030,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2652,11 +3049,11 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>4</v>
@@ -2664,8 +3061,14 @@
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,25 +3290,27 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -2877,11 +3318,17 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,8 +3391,14 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2967,8 +3426,14 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,8 +3581,14 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3105,28 +3596,34 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>800</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,16 +3651,22 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -3178,9 +3681,15 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SNBH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNBH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
   <si>
     <t>SNBH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,63 +665,67 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -755,28 +759,31 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
+      <c r="I9" s="3">
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
@@ -790,28 +797,31 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
+      <c r="I10" s="3">
+        <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
@@ -825,8 +835,11 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +853,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -851,17 +865,17 @@
       <c r="E12" s="3">
         <v>0</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
+      <c r="I12" s="3">
+        <v>0</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>4</v>
@@ -875,8 +889,11 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +927,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,8 +965,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,8 +1018,9 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1001,23 +1028,23 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
         <v>300</v>
       </c>
       <c r="I17" s="3">
+        <v>300</v>
+      </c>
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
@@ -1027,8 +1054,11 @@
       <c r="M17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1036,23 +1066,23 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
         <v>-300</v>
       </c>
       <c r="I18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
@@ -1062,8 +1092,11 @@
       <c r="M18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,8 +1110,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1092,14 +1126,14 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1112,8 +1146,11 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1121,23 +1158,23 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-800</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1147,8 +1184,11 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1167,11 +1207,11 @@
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
@@ -1182,8 +1222,11 @@
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1191,23 +1234,23 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-800</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
@@ -1217,8 +1260,11 @@
       <c r="M23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1252,8 +1298,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,8 +1336,11 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1296,23 +1348,23 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
@@ -1322,8 +1374,11 @@
       <c r="M26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1331,23 +1386,23 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
@@ -1357,8 +1412,11 @@
       <c r="M27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,8 +1564,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1512,14 +1582,14 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1532,8 +1602,11 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1541,23 +1614,23 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
@@ -1567,8 +1640,11 @@
       <c r="M33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,8 +1678,11 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1611,23 +1690,23 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
@@ -1637,48 +1716,54 @@
       <c r="M35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,8 +1793,9 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1716,11 +1803,11 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
@@ -1740,10 +1827,13 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1753,8 +1843,8 @@
       <c r="E42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -1762,8 +1852,8 @@
       <c r="H42" s="3">
         <v>0</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>4</v>
+      <c r="I42" s="3">
+        <v>0</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>4</v>
@@ -1777,19 +1867,22 @@
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
@@ -1798,7 +1891,7 @@
         <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -1809,22 +1902,25 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
         <v>300</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
+      <c r="E44" s="3">
+        <v>300</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
@@ -1832,8 +1928,8 @@
       <c r="H44" s="3">
         <v>0</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
+      <c r="I44" s="3">
+        <v>0</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
@@ -1847,8 +1943,11 @@
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1856,10 +1955,10 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
-      </c>
-      <c r="F45" s="3">
-        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -1870,8 +1969,8 @@
       <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
+      <c r="J45" s="3">
+        <v>100</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
@@ -1882,8 +1981,11 @@
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1891,23 +1993,23 @@
         <v>300</v>
       </c>
       <c r="E46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F46" s="3">
         <v>200</v>
       </c>
       <c r="G46" s="3">
+        <v>200</v>
+      </c>
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
@@ -1915,18 +2017,21 @@
         <v>0</v>
       </c>
       <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -1952,8 +2057,11 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1984,11 +2092,14 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2022,8 +2133,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,19 +2209,22 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
@@ -2118,8 +2238,8 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2127,8 +2247,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,8 +2285,11 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2183,11 +2309,11 @@
         <v>300</v>
       </c>
       <c r="I54" s="3">
+        <v>300</v>
+      </c>
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
@@ -2195,10 +2321,13 @@
         <v>0</v>
       </c>
       <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,19 +2357,20 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
@@ -2257,30 +2388,33 @@
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E58" s="3">
         <v>600</v>
       </c>
       <c r="F58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G58" s="3">
         <v>500</v>
       </c>
       <c r="H58" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I58" s="3">
         <v>200</v>
@@ -2297,8 +2431,11 @@
       <c r="M58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2332,34 +2469,37 @@
       <c r="M59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E60" s="3">
         <v>1000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>800</v>
-      </c>
-      <c r="F60" s="3">
-        <v>600</v>
       </c>
       <c r="G60" s="3">
         <v>600</v>
       </c>
       <c r="H60" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="I60" s="3">
         <v>400</v>
       </c>
       <c r="J60" s="3">
+        <v>400</v>
+      </c>
+      <c r="K60" s="3">
         <v>300</v>
-      </c>
-      <c r="K60" s="3">
-        <v>200</v>
       </c>
       <c r="L60" s="3">
         <v>200</v>
@@ -2367,8 +2507,11 @@
       <c r="M60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2402,8 +2545,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2437,8 +2583,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,34 +2697,37 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>800</v>
-      </c>
-      <c r="F66" s="3">
-        <v>600</v>
       </c>
       <c r="G66" s="3">
         <v>600</v>
       </c>
       <c r="H66" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="I66" s="3">
         <v>400</v>
       </c>
       <c r="J66" s="3">
+        <v>400</v>
+      </c>
+      <c r="K66" s="3">
         <v>300</v>
-      </c>
-      <c r="K66" s="3">
-        <v>200</v>
       </c>
       <c r="L66" s="3">
         <v>200</v>
@@ -2577,8 +2735,11 @@
       <c r="M66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2903,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2000</v>
+        <v>-2200</v>
       </c>
       <c r="E72" s="3">
         <v>-2000</v>
       </c>
       <c r="F72" s="3">
-        <v>-1700</v>
+        <v>-2000</v>
       </c>
       <c r="G72" s="3">
         <v>-1700</v>
       </c>
       <c r="H72" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I72" s="3">
         <v>-1500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1100</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-1000</v>
       </c>
       <c r="K72" s="3">
         <v>-1000</v>
       </c>
       <c r="L72" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="M72" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,28 +3055,31 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-600</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-300</v>
       </c>
       <c r="G76" s="3">
         <v>-300</v>
       </c>
       <c r="H76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I76" s="3">
         <v>-100</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-200</v>
       </c>
       <c r="J76" s="3">
         <v>-200</v>
@@ -2905,10 +3091,13 @@
         <v>-200</v>
       </c>
       <c r="M76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,48 +3131,54 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2991,23 +3186,23 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
@@ -3017,8 +3212,11 @@
       <c r="M81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3230,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3055,8 +3254,8 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
@@ -3067,8 +3266,11 @@
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,32 +3456,35 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
@@ -3275,10 +3492,13 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,28 +3512,29 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -3324,11 +3545,14 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,8 +3624,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3432,8 +3662,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,43 +3830,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>800</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,20 +3906,23 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -3687,9 +3939,12 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SNBH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNBH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>SNBH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,67 +665,71 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -762,22 +766,25 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -785,8 +792,8 @@
       <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
+      <c r="J9" s="3">
+        <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
@@ -800,22 +807,25 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -823,8 +833,8 @@
       <c r="I10" s="3">
         <v>0</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
+      <c r="J10" s="3">
+        <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
@@ -838,8 +848,11 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +867,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -868,8 +882,8 @@
       <c r="F12" s="3">
         <v>0</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
+      <c r="G12" s="3">
+        <v>0</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -877,8 +891,8 @@
       <c r="I12" s="3">
         <v>0</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
+      <c r="J12" s="3">
+        <v>0</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>4</v>
@@ -892,8 +906,11 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +947,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,8 +988,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1029,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,35 +1045,36 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
       </c>
       <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I17" s="3">
         <v>300</v>
       </c>
       <c r="J17" s="3">
+        <v>300</v>
+      </c>
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
@@ -1057,8 +1084,11 @@
       <c r="N17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1069,23 +1099,23 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
-        <v>-300</v>
+        <v>-600</v>
       </c>
       <c r="I18" s="3">
         <v>-300</v>
       </c>
       <c r="J18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
@@ -1095,8 +1125,11 @@
       <c r="N18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,8 +1144,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1129,14 +1163,14 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1149,8 +1183,11 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1161,23 +1198,23 @@
         <v>-100</v>
       </c>
       <c r="F21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-800</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1187,8 +1224,11 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1210,11 +1250,11 @@
       <c r="I22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
@@ -1225,35 +1265,38 @@
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
       </c>
       <c r="F23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
@@ -1263,8 +1306,11 @@
       <c r="N23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1301,8 +1347,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,35 +1388,38 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
       </c>
       <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
@@ -1377,35 +1429,38 @@
       <c r="N26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
       </c>
       <c r="F27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
@@ -1415,8 +1470,11 @@
       <c r="N27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,8 +1634,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1585,14 +1655,14 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1605,35 +1675,38 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
       </c>
       <c r="F33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
@@ -1643,8 +1716,11 @@
       <c r="N33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,35 +1757,38 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
       </c>
       <c r="F35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
@@ -1719,51 +1798,57 @@
       <c r="N35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,8 +1880,9 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1806,11 +1893,11 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
@@ -1830,10 +1917,13 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1846,8 +1936,8 @@
       <c r="F42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
+      <c r="G42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -1855,8 +1945,8 @@
       <c r="I42" s="3">
         <v>0</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>4</v>
+      <c r="J42" s="3">
+        <v>0</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>4</v>
@@ -1870,8 +1960,11 @@
       <c r="N42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1881,11 +1974,11 @@
       <c r="E43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
@@ -1894,7 +1987,7 @@
         <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -1905,11 +1998,14 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1919,11 +2015,11 @@
       <c r="E44" s="3">
         <v>300</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
+      <c r="F44" s="3">
+        <v>300</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -1931,8 +2027,8 @@
       <c r="I44" s="3">
         <v>0</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
+      <c r="J44" s="3">
+        <v>0</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>4</v>
@@ -1946,8 +2042,11 @@
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1958,10 +2057,10 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>200</v>
-      </c>
-      <c r="G45" s="3">
-        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -1972,8 +2071,8 @@
       <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
+      <c r="K45" s="3">
+        <v>100</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
@@ -1984,8 +2083,11 @@
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1996,23 +2098,23 @@
         <v>300</v>
       </c>
       <c r="F46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G46" s="3">
         <v>200</v>
       </c>
       <c r="H46" s="3">
+        <v>200</v>
+      </c>
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
@@ -2020,10 +2122,13 @@
         <v>0</v>
       </c>
       <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2033,8 +2138,8 @@
       <c r="E47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -2060,8 +2165,11 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2095,11 +2203,14 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2136,8 +2247,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,8 +2329,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2223,11 +2343,11 @@
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
@@ -2241,8 +2361,8 @@
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2250,8 +2370,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,8 +2411,11 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2312,11 +2438,11 @@
         <v>300</v>
       </c>
       <c r="J54" s="3">
+        <v>300</v>
+      </c>
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
         <v>0</v>
       </c>
@@ -2324,10 +2450,13 @@
         <v>0</v>
       </c>
       <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,22 +2488,23 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
@@ -2391,33 +2522,36 @@
         <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="3">
         <v>900</v>
-      </c>
-      <c r="E58" s="3">
-        <v>600</v>
       </c>
       <c r="F58" s="3">
         <v>600</v>
       </c>
       <c r="G58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H58" s="3">
         <v>500</v>
       </c>
       <c r="I58" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="J58" s="3">
         <v>200</v>
@@ -2434,8 +2568,11 @@
       <c r="N58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2472,37 +2609,40 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>800</v>
-      </c>
-      <c r="G60" s="3">
-        <v>600</v>
       </c>
       <c r="H60" s="3">
         <v>600</v>
       </c>
       <c r="I60" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="J60" s="3">
         <v>400</v>
       </c>
       <c r="K60" s="3">
+        <v>400</v>
+      </c>
+      <c r="L60" s="3">
         <v>300</v>
-      </c>
-      <c r="L60" s="3">
-        <v>200</v>
       </c>
       <c r="M60" s="3">
         <v>200</v>
@@ -2510,8 +2650,11 @@
       <c r="N60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2548,8 +2691,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2586,8 +2732,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,37 +2855,40 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>800</v>
-      </c>
-      <c r="G66" s="3">
-        <v>600</v>
       </c>
       <c r="H66" s="3">
         <v>600</v>
       </c>
       <c r="I66" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="J66" s="3">
         <v>400</v>
       </c>
       <c r="K66" s="3">
+        <v>400</v>
+      </c>
+      <c r="L66" s="3">
         <v>300</v>
-      </c>
-      <c r="L66" s="3">
-        <v>200</v>
       </c>
       <c r="M66" s="3">
         <v>200</v>
@@ -2738,8 +2896,11 @@
       <c r="N66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3077,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2200</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-2000</v>
       </c>
       <c r="F72" s="3">
         <v>-2000</v>
       </c>
       <c r="G72" s="3">
-        <v>-1700</v>
+        <v>-2000</v>
       </c>
       <c r="H72" s="3">
         <v>-1700</v>
       </c>
       <c r="I72" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J72" s="3">
         <v>-1500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1100</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-1000</v>
       </c>
       <c r="L72" s="3">
         <v>-1000</v>
       </c>
       <c r="M72" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="N72" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,31 +3241,34 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-600</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-300</v>
       </c>
       <c r="H76" s="3">
         <v>-300</v>
       </c>
       <c r="I76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J76" s="3">
         <v>-100</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-200</v>
       </c>
       <c r="K76" s="3">
         <v>-200</v>
@@ -3094,10 +3280,13 @@
         <v>-200</v>
       </c>
       <c r="N76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,78 +3323,84 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
       </c>
       <c r="F81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
@@ -3215,8 +3410,11 @@
       <c r="N81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3429,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3257,8 +3456,8 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
@@ -3269,8 +3468,11 @@
       <c r="N83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,35 +3673,38 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
@@ -3495,10 +3712,13 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3733,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3524,20 +3745,20 @@
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3548,11 +3769,14 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,8 +3854,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3665,8 +3895,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,46 +4076,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>800</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>700</v>
+      </c>
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,8 +4158,11 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3918,14 +4170,14 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -3942,9 +4194,12 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SNBH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNBH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
   <si>
     <t>SNBH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,71 +665,78 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -769,16 +776,22 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
@@ -786,8 +799,8 @@
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -795,11 +808,11 @@
       <c r="J9" s="3">
         <v>0</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
@@ -810,16 +823,22 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
@@ -827,8 +846,8 @@
       <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -836,11 +855,11 @@
       <c r="J10" s="3">
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
@@ -851,8 +870,14 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,13 +893,15 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
+      <c r="D12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -894,11 +921,11 @@
       <c r="J12" s="3">
         <v>0</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>4</v>
@@ -909,8 +936,14 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,31 +983,37 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-200</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -991,8 +1030,14 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1077,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,8 +1097,10 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1055,40 +1108,46 @@
         <v>200</v>
       </c>
       <c r="E17" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F17" s="3">
+        <v>200</v>
+      </c>
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1096,40 +1155,46 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,8 +1210,10 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1166,17 +1233,17 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1186,8 +1253,14 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1195,48 +1268,54 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>100</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>4</v>
@@ -1253,14 +1332,14 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
@@ -1268,8 +1347,14 @@
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1277,40 +1362,46 @@
         <v>-200</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1350,8 +1441,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,8 +1488,14 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1400,40 +1503,46 @@
         <v>-200</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1441,40 +1550,46 @@
         <v>-200</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1629,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1676,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1723,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,8 +1770,14 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1658,17 +1797,17 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -1678,8 +1817,14 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1687,40 +1832,46 @@
         <v>-200</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,8 +1911,14 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1769,86 +1926,98 @@
         <v>-200</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +2033,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,8 +2052,10 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1890,20 +2063,20 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -1920,10 +2093,16 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1939,20 +2118,20 @@
       <c r="G42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
+      <c r="H42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>4</v>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>4</v>
@@ -1963,8 +2142,14 @@
       <c r="O42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1977,23 +2162,23 @@
       <c r="F43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>100</v>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2001,16 +2186,22 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E44" s="3">
         <v>300</v>
@@ -2018,23 +2209,23 @@
       <c r="F44" s="3">
         <v>300</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
+      <c r="G44" s="3">
+        <v>300</v>
       </c>
       <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>4</v>
@@ -2045,13 +2236,19 @@
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2060,13 +2257,13 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>200</v>
-      </c>
-      <c r="H45" s="3">
-        <v>100</v>
-      </c>
-      <c r="I45" s="3">
-        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
@@ -2074,11 +2271,11 @@
       <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
+      <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
+        <v>100</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
@@ -2086,8 +2283,14 @@
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2095,40 +2298,46 @@
         <v>300</v>
       </c>
       <c r="E46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F46" s="3">
         <v>300</v>
       </c>
       <c r="G46" s="3">
+        <v>300</v>
+      </c>
+      <c r="H46" s="3">
+        <v>300</v>
+      </c>
+      <c r="I46" s="3">
         <v>200</v>
-      </c>
-      <c r="H46" s="3">
-        <v>200</v>
-      </c>
-      <c r="I46" s="3">
-        <v>300</v>
       </c>
       <c r="J46" s="3">
         <v>200</v>
       </c>
       <c r="K46" s="3">
+        <v>300</v>
+      </c>
+      <c r="L46" s="3">
+        <v>200</v>
+      </c>
+      <c r="M46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
       <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2141,11 +2350,11 @@
       <c r="F47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
@@ -2168,8 +2377,14 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2206,11 +2421,17 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2250,8 +2471,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2518,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,8 +2565,14 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2346,14 +2585,14 @@
       <c r="F52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
@@ -2364,17 +2603,23 @@
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,8 +2659,14 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2423,7 +2674,7 @@
         <v>300</v>
       </c>
       <c r="E54" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F54" s="3">
         <v>300</v>
@@ -2441,22 +2692,28 @@
         <v>300</v>
       </c>
       <c r="K54" s="3">
+        <v>300</v>
+      </c>
+      <c r="L54" s="3">
+        <v>300</v>
+      </c>
+      <c r="M54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
       <c r="N54" s="3">
         <v>0</v>
       </c>
       <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2729,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,28 +2748,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
       </c>
       <c r="F57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
@@ -2525,39 +2786,45 @@
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F58" s="3">
         <v>1000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>500</v>
-      </c>
-      <c r="J58" s="3">
-        <v>200</v>
-      </c>
-      <c r="K58" s="3">
-        <v>200</v>
       </c>
       <c r="L58" s="3">
         <v>200</v>
@@ -2571,8 +2838,14 @@
       <c r="O58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2612,49 +2885,61 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E60" s="3">
         <v>1300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>300</v>
-      </c>
-      <c r="M60" s="3">
-        <v>200</v>
-      </c>
-      <c r="N60" s="3">
-        <v>200</v>
       </c>
       <c r="O60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2694,8 +2979,14 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2735,8 +3026,14 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +3073,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +3120,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3167,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G66" s="3">
         <v>1100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>300</v>
-      </c>
-      <c r="M66" s="3">
-        <v>200</v>
-      </c>
-      <c r="N66" s="3">
-        <v>200</v>
       </c>
       <c r="O66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3237,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3280,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3327,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3374,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3421,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-2400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-2200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-2000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-2000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-1700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-1700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-1500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-1000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-1000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3515,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3562,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,37 +3609,43 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-100</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-200</v>
       </c>
       <c r="M76" s="3">
         <v>-200</v>
@@ -3283,10 +3654,16 @@
         <v>-200</v>
       </c>
       <c r="O76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,54 +3703,66 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3381,40 +3770,46 @@
         <v>-200</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3825,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3459,11 +3856,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>4</v>
@@ -3471,8 +3868,14 @@
       <c r="O83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3915,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3962,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +4009,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +4056,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,13 +4103,19 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
         <v>-300</v>
@@ -3691,34 +4124,40 @@
         <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,8 +4173,10 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3748,23 +4189,23 @@
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3772,11 +4213,17 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4263,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,13 +4310,19 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -3898,8 +4357,14 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4380,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4423,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4470,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4517,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,8 +4564,14 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4091,37 +4582,43 @@
         <v>300</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
+        <v>300</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,29 +4658,35 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -4197,9 +4700,15 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SNBH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNBH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
   <si>
     <t>SNBH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,82 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,28 +786,31 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
+      <c r="E9" s="3">
+        <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
@@ -814,8 +821,8 @@
       <c r="L9" s="3">
         <v>0</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
+      <c r="M9" s="3">
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
@@ -829,28 +836,31 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
+      <c r="E10" s="3">
+        <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
@@ -861,8 +871,8 @@
       <c r="L10" s="3">
         <v>0</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
+      <c r="M10" s="3">
+        <v>0</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,16 +908,17 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
+      <c r="E12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
@@ -927,8 +941,8 @@
       <c r="L12" s="3">
         <v>0</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>4</v>
+      <c r="M12" s="3">
+        <v>0</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>4</v>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,20 +1006,23 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
         <v>-200</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1015,8 +1035,8 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,44 +1125,45 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>-100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
-      </c>
-      <c r="G17" s="3">
-        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
       </c>
       <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
-      </c>
-      <c r="K17" s="3">
-        <v>300</v>
       </c>
       <c r="L17" s="3">
         <v>300</v>
       </c>
       <c r="M17" s="3">
+        <v>300</v>
+      </c>
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
@@ -1146,8 +1173,11 @@
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,35 +1185,35 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-100</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
       </c>
       <c r="I18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-300</v>
       </c>
       <c r="L18" s="3">
         <v>-300</v>
       </c>
       <c r="M18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
@@ -1193,8 +1223,11 @@
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1239,14 +1273,14 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1259,8 +1293,11 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1268,35 +1305,35 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
         <v>100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-200</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-100</v>
       </c>
       <c r="H21" s="3">
         <v>-100</v>
       </c>
       <c r="I21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1306,20 +1343,23 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1338,11 +1378,11 @@
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>4</v>
@@ -1353,44 +1393,47 @@
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-100</v>
       </c>
       <c r="H23" s="3">
         <v>-100</v>
       </c>
       <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
@@ -1400,8 +1443,11 @@
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,44 +1543,47 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-200</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-100</v>
       </c>
       <c r="H26" s="3">
         <v>-100</v>
       </c>
       <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
@@ -1541,44 +1593,47 @@
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-200</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-100</v>
       </c>
       <c r="H27" s="3">
         <v>-100</v>
       </c>
       <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
@@ -1588,8 +1643,11 @@
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1803,14 +1873,14 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -1823,44 +1893,47 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-200</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-100</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
       </c>
       <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
@@ -1870,8 +1943,11 @@
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,44 +1993,47 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-200</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-100</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
       </c>
       <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
@@ -1964,60 +2043,66 @@
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,8 +2140,9 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2063,11 +2150,11 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
@@ -2075,11 +2162,11 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -2099,10 +2186,13 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2124,8 +2214,8 @@
       <c r="I42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J42" s="3">
-        <v>0</v>
+      <c r="J42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2133,8 +2223,8 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>4</v>
+      <c r="M42" s="3">
+        <v>0</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>4</v>
@@ -2148,8 +2238,11 @@
       <c r="Q42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2168,11 +2261,11 @@
       <c r="H43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
@@ -2181,7 +2274,7 @@
         <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2192,11 +2285,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2204,7 +2300,7 @@
         <v>200</v>
       </c>
       <c r="E44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F44" s="3">
         <v>300</v>
@@ -2215,11 +2311,11 @@
       <c r="H44" s="3">
         <v>300</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+      <c r="I44" s="3">
+        <v>300</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2227,8 +2323,8 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
+      <c r="M44" s="3">
+        <v>0</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>4</v>
@@ -2242,16 +2338,19 @@
       <c r="Q44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2263,10 +2362,10 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>200</v>
-      </c>
-      <c r="J45" s="3">
-        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -2277,8 +2376,8 @@
       <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
+      <c r="N45" s="3">
+        <v>100</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>4</v>
@@ -2289,19 +2388,22 @@
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>400</v>
-      </c>
-      <c r="F46" s="3">
-        <v>300</v>
       </c>
       <c r="G46" s="3">
         <v>300</v>
@@ -2310,23 +2412,23 @@
         <v>300</v>
       </c>
       <c r="I46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J46" s="3">
         <v>200</v>
       </c>
       <c r="K46" s="3">
+        <v>200</v>
+      </c>
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
@@ -2334,10 +2436,13 @@
         <v>0</v>
       </c>
       <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2356,8 +2461,8 @@
       <c r="H47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -2383,8 +2488,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2427,11 +2535,14 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2591,11 +2711,11 @@
       <c r="H52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
@@ -2609,8 +2729,8 @@
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,8 +2788,11 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2674,10 +2800,10 @@
         <v>300</v>
       </c>
       <c r="E54" s="3">
+        <v>300</v>
+      </c>
+      <c r="F54" s="3">
         <v>400</v>
-      </c>
-      <c r="F54" s="3">
-        <v>300</v>
       </c>
       <c r="G54" s="3">
         <v>300</v>
@@ -2698,11 +2824,11 @@
         <v>300</v>
       </c>
       <c r="M54" s="3">
+        <v>300</v>
+      </c>
+      <c r="N54" s="3">
         <v>200</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
       <c r="O54" s="3">
         <v>0</v>
       </c>
@@ -2710,10 +2836,13 @@
         <v>0</v>
       </c>
       <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,31 +2880,32 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
       </c>
       <c r="F57" s="3">
+        <v>200</v>
+      </c>
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
@@ -2792,13 +2923,16 @@
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2806,28 +2940,28 @@
         <v>1300</v>
       </c>
       <c r="E58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F58" s="3">
         <v>1100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>900</v>
-      </c>
-      <c r="H58" s="3">
-        <v>600</v>
       </c>
       <c r="I58" s="3">
         <v>600</v>
       </c>
       <c r="J58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K58" s="3">
         <v>500</v>
       </c>
       <c r="L58" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="M58" s="3">
         <v>200</v>
@@ -2844,8 +2978,11 @@
       <c r="Q58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2891,46 +3028,49 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1400</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1300</v>
       </c>
       <c r="F60" s="3">
         <v>1300</v>
       </c>
       <c r="G60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H60" s="3">
         <v>1100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>800</v>
-      </c>
-      <c r="J60" s="3">
-        <v>600</v>
       </c>
       <c r="K60" s="3">
         <v>600</v>
       </c>
       <c r="L60" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M60" s="3">
         <v>400</v>
       </c>
       <c r="N60" s="3">
+        <v>400</v>
+      </c>
+      <c r="O60" s="3">
         <v>300</v>
-      </c>
-      <c r="O60" s="3">
-        <v>200</v>
       </c>
       <c r="P60" s="3">
         <v>200</v>
@@ -2938,8 +3078,11 @@
       <c r="Q60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,31 +3128,34 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,46 +3328,49 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1400</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1300</v>
       </c>
       <c r="F66" s="3">
         <v>1300</v>
       </c>
       <c r="G66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H66" s="3">
         <v>1100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>800</v>
-      </c>
-      <c r="J66" s="3">
-        <v>600</v>
       </c>
       <c r="K66" s="3">
         <v>600</v>
       </c>
       <c r="L66" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M66" s="3">
         <v>400</v>
       </c>
       <c r="N66" s="3">
+        <v>400</v>
+      </c>
+      <c r="O66" s="3">
         <v>300</v>
-      </c>
-      <c r="O66" s="3">
-        <v>200</v>
       </c>
       <c r="P66" s="3">
         <v>200</v>
@@ -3220,8 +3378,11 @@
       <c r="Q66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2200</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-2000</v>
       </c>
       <c r="I72" s="3">
         <v>-2000</v>
       </c>
       <c r="J72" s="3">
-        <v>-1700</v>
+        <v>-2000</v>
       </c>
       <c r="K72" s="3">
         <v>-1700</v>
       </c>
       <c r="L72" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="M72" s="3">
         <v>-1500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1100</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-1000</v>
       </c>
       <c r="O72" s="3">
         <v>-1000</v>
       </c>
       <c r="P72" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="Q72" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,40 +3798,43 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-600</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-300</v>
       </c>
       <c r="K76" s="3">
         <v>-300</v>
       </c>
       <c r="L76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M76" s="3">
         <v>-100</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-200</v>
       </c>
       <c r="N76" s="3">
         <v>-200</v>
@@ -3660,10 +3846,13 @@
         <v>-200</v>
       </c>
       <c r="Q76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,96 +3898,102 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-200</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-100</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
       </c>
       <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
@@ -3808,8 +4003,11 @@
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3862,8 +4061,8 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>4</v>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,44 +4323,47 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-700</v>
       </c>
       <c r="J89" s="3">
         <v>-700</v>
       </c>
       <c r="K89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
@@ -4154,10 +4371,13 @@
         <v>0</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4195,20 +4416,20 @@
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4219,11 +4440,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,16 +4543,19 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -4363,8 +4593,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +4813,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4579,46 +4825,49 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,32 +4913,35 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -4706,9 +4958,12 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SNBH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNBH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
   <si>
     <t>SNBH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,86 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -789,31 +793,34 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
+      <c r="F9" s="3">
+        <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -824,8 +831,8 @@
       <c r="M9" s="3">
         <v>0</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
+      <c r="N9" s="3">
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
@@ -839,8 +846,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,20 +860,20 @@
       <c r="E10" s="3">
         <v>0</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
+      <c r="F10" s="3">
+        <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -874,8 +884,8 @@
       <c r="M10" s="3">
         <v>0</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
+      <c r="N10" s="3">
+        <v>0</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
@@ -889,8 +899,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -920,8 +934,8 @@
       <c r="E12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -944,8 +958,8 @@
       <c r="M12" s="3">
         <v>0</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>4</v>
+      <c r="N12" s="3">
+        <v>0</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>4</v>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1020,12 +1040,12 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
         <v>-200</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1038,8 +1058,8 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,47 +1152,48 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>-100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
-      </c>
-      <c r="H17" s="3">
-        <v>100</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
       </c>
       <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
-      </c>
-      <c r="L17" s="3">
-        <v>300</v>
       </c>
       <c r="M17" s="3">
         <v>300</v>
       </c>
       <c r="N17" s="3">
+        <v>300</v>
+      </c>
+      <c r="O17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
@@ -1176,8 +1203,11 @@
       <c r="R17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1185,38 +1215,38 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-100</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
       </c>
       <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-300</v>
       </c>
       <c r="M18" s="3">
         <v>-300</v>
       </c>
       <c r="N18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
@@ -1226,8 +1256,11 @@
       <c r="R18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1279,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1276,14 +1310,14 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1296,8 +1330,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1305,38 +1342,38 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-200</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-100</v>
       </c>
       <c r="I21" s="3">
         <v>-100</v>
       </c>
       <c r="J21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1346,23 +1383,26 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1381,11 +1421,11 @@
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>4</v>
@@ -1396,47 +1436,50 @@
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-100</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
       </c>
       <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
@@ -1446,8 +1489,11 @@
       <c r="R23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1542,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,47 +1595,50 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-100</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
       </c>
       <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
@@ -1596,47 +1648,50 @@
       <c r="R26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-200</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-100</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
       </c>
       <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
@@ -1646,8 +1701,11 @@
       <c r="R27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1913,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1876,14 +1946,14 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -1896,47 +1966,50 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-200</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-100</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
       </c>
       <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
@@ -1946,8 +2019,11 @@
       <c r="R33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,47 +2072,50 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-200</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-100</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
       </c>
       <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
@@ -2046,63 +2125,69 @@
       <c r="R35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,8 +2227,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2153,11 +2240,11 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
@@ -2165,11 +2252,11 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -2189,36 +2276,39 @@
         <v>0</v>
       </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -2226,8 +2316,8 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>4</v>
+      <c r="N42" s="3">
+        <v>0</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>4</v>
@@ -2241,34 +2331,37 @@
       <c r="R42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
@@ -2277,7 +2370,7 @@
         <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2288,11 +2381,14 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2303,7 +2399,7 @@
         <v>200</v>
       </c>
       <c r="F44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G44" s="3">
         <v>300</v>
@@ -2314,11 +2410,11 @@
       <c r="I44" s="3">
         <v>300</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="J44" s="3">
+        <v>300</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -2326,8 +2422,8 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
+      <c r="N44" s="3">
+        <v>0</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>4</v>
@@ -2341,8 +2437,11 @@
       <c r="R44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2352,8 +2451,8 @@
       <c r="E45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2365,10 +2464,10 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>200</v>
-      </c>
-      <c r="K45" s="3">
-        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -2379,8 +2478,8 @@
       <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
+      <c r="O45" s="3">
+        <v>100</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>4</v>
@@ -2391,8 +2490,11 @@
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2400,13 +2502,13 @@
         <v>200</v>
       </c>
       <c r="E46" s="3">
+        <v>200</v>
+      </c>
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>400</v>
-      </c>
-      <c r="G46" s="3">
-        <v>300</v>
       </c>
       <c r="H46" s="3">
         <v>300</v>
@@ -2415,23 +2517,23 @@
         <v>300</v>
       </c>
       <c r="J46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K46" s="3">
         <v>200</v>
       </c>
       <c r="L46" s="3">
+        <v>200</v>
+      </c>
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>100</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
@@ -2439,30 +2541,33 @@
         <v>0</v>
       </c>
       <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -2491,8 +2596,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2538,11 +2646,14 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2808,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2714,11 +2834,11 @@
       <c r="I52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
@@ -2732,8 +2852,8 @@
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -2741,8 +2861,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,8 +2914,11 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2803,10 +2929,10 @@
         <v>300</v>
       </c>
       <c r="F54" s="3">
+        <v>300</v>
+      </c>
+      <c r="G54" s="3">
         <v>400</v>
-      </c>
-      <c r="G54" s="3">
-        <v>300</v>
       </c>
       <c r="H54" s="3">
         <v>300</v>
@@ -2827,11 +2953,11 @@
         <v>300</v>
       </c>
       <c r="N54" s="3">
+        <v>300</v>
+      </c>
+      <c r="O54" s="3">
         <v>200</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
       <c r="P54" s="3">
         <v>0</v>
       </c>
@@ -2839,10 +2965,13 @@
         <v>0</v>
       </c>
       <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,34 +3011,35 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
-      </c>
-      <c r="E57" s="3">
-        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
       </c>
       <c r="G57" s="3">
+        <v>200</v>
+      </c>
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
@@ -2926,13 +3057,16 @@
         <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2943,28 +3077,28 @@
         <v>1300</v>
       </c>
       <c r="F58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G58" s="3">
         <v>1100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>900</v>
-      </c>
-      <c r="I58" s="3">
-        <v>600</v>
       </c>
       <c r="J58" s="3">
         <v>600</v>
       </c>
       <c r="K58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L58" s="3">
         <v>500</v>
       </c>
       <c r="M58" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N58" s="3">
         <v>200</v>
@@ -2981,8 +3115,11 @@
       <c r="R58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3031,49 +3168,52 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E60" s="3">
         <v>1700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1400</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1300</v>
       </c>
       <c r="G60" s="3">
         <v>1300</v>
       </c>
       <c r="H60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I60" s="3">
         <v>1100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>800</v>
-      </c>
-      <c r="K60" s="3">
-        <v>600</v>
       </c>
       <c r="L60" s="3">
         <v>600</v>
       </c>
       <c r="M60" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N60" s="3">
         <v>400</v>
       </c>
       <c r="O60" s="3">
+        <v>400</v>
+      </c>
+      <c r="P60" s="3">
         <v>300</v>
-      </c>
-      <c r="P60" s="3">
-        <v>200</v>
       </c>
       <c r="Q60" s="3">
         <v>200</v>
@@ -3081,8 +3221,11 @@
       <c r="R60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,8 +3274,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3157,8 +3303,8 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,49 +3486,52 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1400</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1300</v>
       </c>
       <c r="G66" s="3">
         <v>1300</v>
       </c>
       <c r="H66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I66" s="3">
         <v>1100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>800</v>
-      </c>
-      <c r="K66" s="3">
-        <v>600</v>
       </c>
       <c r="L66" s="3">
         <v>600</v>
       </c>
       <c r="M66" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N66" s="3">
         <v>400</v>
       </c>
       <c r="O66" s="3">
+        <v>400</v>
+      </c>
+      <c r="P66" s="3">
         <v>300</v>
-      </c>
-      <c r="P66" s="3">
-        <v>200</v>
       </c>
       <c r="Q66" s="3">
         <v>200</v>
@@ -3381,8 +3539,11 @@
       <c r="R66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2200</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-2000</v>
       </c>
       <c r="J72" s="3">
         <v>-2000</v>
       </c>
       <c r="K72" s="3">
-        <v>-1700</v>
+        <v>-2000</v>
       </c>
       <c r="L72" s="3">
         <v>-1700</v>
       </c>
       <c r="M72" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="N72" s="3">
         <v>-1500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-1000</v>
       </c>
       <c r="P72" s="3">
         <v>-1000</v>
       </c>
       <c r="Q72" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="R72" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,43 +3984,46 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-600</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-300</v>
       </c>
       <c r="L76" s="3">
         <v>-300</v>
       </c>
       <c r="M76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N76" s="3">
         <v>-100</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-200</v>
       </c>
       <c r="O76" s="3">
         <v>-200</v>
@@ -3849,10 +4035,13 @@
         <v>-200</v>
       </c>
       <c r="R76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,102 +4090,108 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-200</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-100</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
       </c>
       <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
@@ -4006,8 +4201,11 @@
       <c r="R81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4064,8 +4263,8 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>4</v>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,47 +4540,50 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-700</v>
       </c>
       <c r="K89" s="3">
         <v>-700</v>
       </c>
       <c r="L89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
@@ -4374,10 +4591,13 @@
         <v>0</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4616,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4419,20 +4640,20 @@
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4443,11 +4664,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,16 +4773,19 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -4596,8 +4826,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5059,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
       </c>
       <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
+      <c r="P100" s="3">
+        <v>0</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,8 +5165,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4925,26 +5177,26 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -4961,9 +5213,12 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SNBH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNBH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
   <si>
     <t>SNBH</t>
   </si>
@@ -4622,26 +4622,26 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/SNBH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNBH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>SNBH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,86 +665,97 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -796,13 +807,22 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>0</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -813,8 +833,8 @@
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
+      <c r="H9" s="3">
+        <v>0</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -822,26 +842,26 @@
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
+      <c r="K9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>4</v>
@@ -849,8 +869,17 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -866,8 +895,8 @@
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
+      <c r="H10" s="3">
+        <v>0</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -875,26 +904,26 @@
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>4</v>
@@ -902,8 +931,17 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +961,11 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -937,14 +978,14 @@
       <c r="F12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
+      <c r="G12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
@@ -961,14 +1002,14 @@
       <c r="N12" s="3">
         <v>0</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>4</v>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>4</v>
@@ -976,8 +1017,17 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1079,17 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1043,32 +1102,32 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
         <v>-200</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1082,8 +1141,17 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1203,17 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,61 +1230,73 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1215,52 +1304,61 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="J18" s="3">
         <v>100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,8 +1378,11 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1313,19 +1414,19 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
@@ -1333,8 +1434,17 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1342,76 +1452,85 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="J21" s="3">
         <v>100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N21" s="3">
         <v>-800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>-600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
-      <c r="O21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
+      <c r="R21" s="3">
+        <v>-100</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1424,8 +1543,8 @@
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>4</v>
@@ -1433,14 +1552,23 @@
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1448,52 +1576,61 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,8 +1682,17 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,8 +1744,17 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1607,52 +1762,61 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1660,52 +1824,61 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1930,17 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1992,17 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +2054,17 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,8 +2116,17 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1949,28 +2158,37 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1978,52 +2196,61 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,8 +2302,17 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2084,110 +2320,128 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2461,11 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,8 +2485,11 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2243,29 +2503,29 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
@@ -2279,10 +2539,19 @@
         <v>0</v>
       </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2307,8 +2576,8 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>4</v>
+      <c r="K42" s="3">
+        <v>0</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -2316,17 +2585,17 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>4</v>
+      <c r="N42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>4</v>
@@ -2334,8 +2603,17 @@
       <c r="S42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2364,31 +2642,40 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2402,37 +2689,37 @@
         <v>200</v>
       </c>
       <c r="G44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J44" s="3">
         <v>300</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
+      <c r="K44" s="3">
+        <v>300</v>
       </c>
       <c r="L44" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M44" s="3">
-        <v>0</v>
-      </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>4</v>
+        <v>300</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>4</v>
@@ -2440,19 +2727,28 @@
       <c r="S44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2467,34 +2763,43 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>200</v>
-      </c>
-      <c r="L45" s="3">
-        <v>100</v>
-      </c>
-      <c r="M45" s="3">
-        <v>100</v>
-      </c>
-      <c r="N45" s="3">
-        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
+      <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
+        <v>100</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2505,25 +2810,25 @@
         <v>200</v>
       </c>
       <c r="F46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G46" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I46" s="3">
         <v>300</v>
       </c>
       <c r="J46" s="3">
+        <v>400</v>
+      </c>
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
-        <v>200</v>
-      </c>
       <c r="L46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M46" s="3">
         <v>300</v>
@@ -2532,22 +2837,31 @@
         <v>200</v>
       </c>
       <c r="O46" s="3">
+        <v>200</v>
+      </c>
+      <c r="P46" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>200</v>
+      </c>
+      <c r="R46" s="3">
         <v>100</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
       <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,8 +2913,17 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2649,11 +2972,20 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2705,8 +3037,17 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +3099,17 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,34 +3161,43 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
@@ -2846,8 +3205,8 @@
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
+      <c r="N52" s="3">
+        <v>0</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
@@ -2855,17 +3214,26 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
-      <c r="S52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,13 +3285,22 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E54" s="3">
         <v>300</v>
@@ -2932,7 +3309,7 @@
         <v>300</v>
       </c>
       <c r="G54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H54" s="3">
         <v>300</v>
@@ -2941,7 +3318,7 @@
         <v>300</v>
       </c>
       <c r="J54" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K54" s="3">
         <v>300</v>
@@ -2956,22 +3333,31 @@
         <v>300</v>
       </c>
       <c r="O54" s="3">
+        <v>300</v>
+      </c>
+      <c r="P54" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>300</v>
+      </c>
+      <c r="R54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
       <c r="S54" s="3">
+        <v>0</v>
+      </c>
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3377,11 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,8 +3401,11 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3021,34 +3413,34 @@
         <v>500</v>
       </c>
       <c r="E57" s="3">
+        <v>500</v>
+      </c>
+      <c r="F57" s="3">
+        <v>500</v>
+      </c>
+      <c r="G57" s="3">
+        <v>500</v>
+      </c>
+      <c r="H57" s="3">
         <v>400</v>
-      </c>
-      <c r="F57" s="3">
-        <v>200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>300</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
       </c>
       <c r="J57" s="3">
+        <v>200</v>
+      </c>
+      <c r="K57" s="3">
+        <v>300</v>
+      </c>
+      <c r="L57" s="3">
+        <v>200</v>
+      </c>
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
-      </c>
-      <c r="L57" s="3">
-        <v>100</v>
-      </c>
-      <c r="M57" s="3">
-        <v>100</v>
-      </c>
-      <c r="N57" s="3">
-        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
@@ -3060,54 +3452,63 @@
         <v>100</v>
       </c>
       <c r="R57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T57" s="3">
+        <v>100</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G58" s="3">
         <v>1300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="H58" s="3">
         <v>1300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="I58" s="3">
         <v>1300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="J58" s="3">
         <v>1100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="K58" s="3">
         <v>1000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>500</v>
-      </c>
-      <c r="N58" s="3">
-        <v>200</v>
-      </c>
-      <c r="O58" s="3">
-        <v>200</v>
-      </c>
-      <c r="P58" s="3">
-        <v>200</v>
       </c>
       <c r="Q58" s="3">
         <v>200</v>
@@ -3118,8 +3519,17 @@
       <c r="S58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>200</v>
+      </c>
+      <c r="U58" s="3">
+        <v>200</v>
+      </c>
+      <c r="V58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3171,61 +3581,79 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E60" s="3">
         <v>1800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H60" s="3">
         <v>1700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>1400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>1300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>1300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>1100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>1000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="R60" s="3">
         <v>400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="S60" s="3">
         <v>300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="T60" s="3">
         <v>200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="U60" s="3">
         <v>200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="V60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3277,8 +3705,17 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3306,14 +3743,14 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3330,8 +3767,17 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3829,17 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3891,17 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3953,79 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H66" s="3">
         <v>1700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>1400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>1300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>1300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>1100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>1000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="T66" s="3">
         <v>200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="U66" s="3">
         <v>200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="V66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +4045,11 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +4101,17 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +4163,17 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +4225,17 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +4287,79 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="G72" s="3">
         <v>-2900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-2800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-2500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-2300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-2400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-2200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-2000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-2000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-1700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-1700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-1500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>-1100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>-1000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="U72" s="3">
         <v>-900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="V72" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4411,17 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4473,17 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4535,79 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G76" s="3">
         <v>-1500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>-1400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>-1200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>-900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>-1000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>-800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>-700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>-600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>-300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>-300</v>
       </c>
-      <c r="N76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q76" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="R76" s="3">
         <v>-200</v>
       </c>
       <c r="S76" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="T76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,66 +4659,84 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4160,52 +4744,61 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4818,11 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4266,20 +4862,29 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4936,17 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4998,17 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +5060,17 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +5122,17 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,8 +5184,17 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4552,52 +5202,61 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,8 +5276,11 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4649,29 +5311,38 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +5394,17 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,8 +5456,17 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4829,8 +5518,17 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5548,11 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5604,17 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5666,17 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5728,17 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,8 +5790,17 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5071,52 +5808,61 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
       </c>
       <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
+        <v>300</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,8 +5914,17 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5180,32 +5935,32 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-100</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -5216,9 +5971,18 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V102" s="3">
         <v>100</v>
       </c>
     </row>
